--- a/Code/Results/Cases/Case_2_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015783555084372</v>
+        <v>1.037747584065066</v>
       </c>
       <c r="D2">
-        <v>1.033320010987302</v>
+        <v>1.044889327199931</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.037971862206341</v>
+        <v>1.053922114303413</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050114797244916</v>
+        <v>1.040941350211184</v>
       </c>
       <c r="J2">
-        <v>1.037502217589339</v>
+        <v>1.042848772806245</v>
       </c>
       <c r="K2">
-        <v>1.044333870644549</v>
+        <v>1.04765910864655</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.048926370501803</v>
+        <v>1.056666747259589</v>
       </c>
       <c r="N2">
-        <v>1.038975589741484</v>
+        <v>1.044329737680056</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019459327509217</v>
+        <v>1.038529238543601</v>
       </c>
       <c r="D3">
-        <v>1.036012842502995</v>
+        <v>1.045487605081989</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.041185816762554</v>
+        <v>1.054656576556018</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051103434329723</v>
+        <v>1.041109093685107</v>
       </c>
       <c r="J3">
-        <v>1.039433210996667</v>
+        <v>1.043275777547245</v>
       </c>
       <c r="K3">
-        <v>1.046204769886732</v>
+        <v>1.048069271492459</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.051317502316513</v>
+        <v>1.057214551684232</v>
       </c>
       <c r="N3">
-        <v>1.040909325380938</v>
+        <v>1.044757348816767</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021795561384004</v>
+        <v>1.03903564103574</v>
       </c>
       <c r="D4">
-        <v>1.037727485860414</v>
+        <v>1.045875297316095</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.043233610797364</v>
+        <v>1.055132741521048</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05172402890531</v>
+        <v>1.041216797564238</v>
       </c>
       <c r="J4">
-        <v>1.040657702006061</v>
+        <v>1.043552004578557</v>
       </c>
       <c r="K4">
-        <v>1.047390936749756</v>
+        <v>1.048334542272475</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.052836809901413</v>
+        <v>1.05756926528707</v>
       </c>
       <c r="N4">
-        <v>1.042135555308017</v>
+        <v>1.045033968122147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022767891990834</v>
+        <v>1.039248679141596</v>
       </c>
       <c r="D5">
-        <v>1.038441830962662</v>
+        <v>1.046038416831656</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.04408708089739</v>
+        <v>1.055333139099935</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051980426912808</v>
+        <v>1.041261875044098</v>
       </c>
       <c r="J5">
-        <v>1.041166633149499</v>
+        <v>1.043668111464576</v>
       </c>
       <c r="K5">
-        <v>1.047883881040817</v>
+        <v>1.048446029130776</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.053469001871</v>
+        <v>1.057718444429575</v>
       </c>
       <c r="N5">
-        <v>1.042645209192054</v>
+        <v>1.045150239893261</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022930582803002</v>
+        <v>1.039284457713145</v>
       </c>
       <c r="D6">
-        <v>1.038561396670037</v>
+        <v>1.046065813100842</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.044229952763519</v>
+        <v>1.055366799446783</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052023215575698</v>
+        <v>1.041269431928851</v>
       </c>
       <c r="J6">
-        <v>1.041251746089835</v>
+        <v>1.043687605170943</v>
       </c>
       <c r="K6">
-        <v>1.047966316753818</v>
+        <v>1.048464746291042</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.05357477153454</v>
+        <v>1.057743495588663</v>
       </c>
       <c r="N6">
-        <v>1.042730443002527</v>
+        <v>1.045169761282927</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021808591931636</v>
+        <v>1.03903848708805</v>
       </c>
       <c r="D7">
-        <v>1.03773705626598</v>
+        <v>1.045877476404094</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.043245043808625</v>
+        <v>1.055135418390069</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051727472489076</v>
+        <v>1.041217400683382</v>
       </c>
       <c r="J7">
-        <v>1.040664525155858</v>
+        <v>1.043553556080624</v>
       </c>
       <c r="K7">
-        <v>1.047397545805196</v>
+        <v>1.048336032096637</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.052845282714526</v>
+        <v>1.057571258402114</v>
       </c>
       <c r="N7">
-        <v>1.042142388147469</v>
+        <v>1.045035521827524</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017034723020133</v>
+        <v>1.03801161839754</v>
       </c>
       <c r="D8">
-        <v>1.034235922750532</v>
+        <v>1.045091399581232</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.039064752134862</v>
+        <v>1.054170137742433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050452918267453</v>
+        <v>1.04099821282586</v>
       </c>
       <c r="J8">
-        <v>1.038160065258374</v>
+        <v>1.042993095488969</v>
       </c>
       <c r="K8">
-        <v>1.044971287150607</v>
+        <v>1.047797751607642</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.049740341647665</v>
+        <v>1.056851828053293</v>
       </c>
       <c r="N8">
-        <v>1.039634371629665</v>
+        <v>1.044474265317544</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008285469890378</v>
+        <v>1.036206974431009</v>
       </c>
       <c r="D9">
-        <v>1.027845881345486</v>
+        <v>1.043710654266841</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.031445137373599</v>
+        <v>1.052476320770582</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048056913915751</v>
+        <v>1.040605596443955</v>
       </c>
       <c r="J9">
-        <v>1.033549001603019</v>
+        <v>1.042004987999624</v>
       </c>
       <c r="K9">
-        <v>1.040502774589941</v>
+        <v>1.046848282372132</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.044047838854919</v>
+        <v>1.055586071116457</v>
       </c>
       <c r="N9">
-        <v>1.035016759735023</v>
+        <v>1.043484754602226</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002206030578215</v>
+        <v>1.035007237981406</v>
       </c>
       <c r="D10">
-        <v>1.023426282563647</v>
+        <v>1.042793244746187</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.026181159180868</v>
+        <v>1.051352031164037</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046353318470685</v>
+        <v>1.040339608817338</v>
       </c>
       <c r="J10">
-        <v>1.030332395635797</v>
+        <v>1.04134599069868</v>
       </c>
       <c r="K10">
-        <v>1.037385069418962</v>
+        <v>1.046214746156294</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.040093264877697</v>
+        <v>1.054743660777173</v>
       </c>
       <c r="N10">
-        <v>1.031795585818378</v>
+        <v>1.042824821449527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9995103328219778</v>
+        <v>1.034488559398557</v>
       </c>
       <c r="D11">
-        <v>1.021472038192027</v>
+        <v>1.042396752730264</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.023854825759905</v>
+        <v>1.050866395711892</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045589165580701</v>
+        <v>1.040223436444542</v>
       </c>
       <c r="J11">
-        <v>1.028903496719217</v>
+        <v>1.04106059311387</v>
       </c>
       <c r="K11">
-        <v>1.036000074017641</v>
+        <v>1.045940303327842</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.038340473272021</v>
+        <v>1.0543792480764</v>
       </c>
       <c r="N11">
-        <v>1.030364657701439</v>
+        <v>1.042539018567411</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9984990970019034</v>
+        <v>1.034296023472734</v>
       </c>
       <c r="D12">
-        <v>1.020739815642706</v>
+        <v>1.042249592942792</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.022983365959458</v>
+        <v>1.050686189971553</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045301230579801</v>
+        <v>1.040180135689371</v>
       </c>
       <c r="J12">
-        <v>1.028367113850784</v>
+        <v>1.040954577990594</v>
       </c>
       <c r="K12">
-        <v>1.035480175651436</v>
+        <v>1.045838346800308</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.037683101422087</v>
+        <v>1.054243944297401</v>
       </c>
       <c r="N12">
-        <v>1.029827513107809</v>
+        <v>1.0424328528905</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9987164671994848</v>
+        <v>1.034337317422519</v>
       </c>
       <c r="D13">
-        <v>1.020897170269965</v>
+        <v>1.042281153981163</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.023170634832716</v>
+        <v>1.050724836493647</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045363180830068</v>
+        <v>1.040189430585905</v>
       </c>
       <c r="J13">
-        <v>1.028482427801506</v>
+        <v>1.040977318832773</v>
       </c>
       <c r="K13">
-        <v>1.035591945374354</v>
+        <v>1.045860217533955</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.037824399184901</v>
+        <v>1.05427296488558</v>
       </c>
       <c r="N13">
-        <v>1.029942990817567</v>
+        <v>1.042455626027283</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9994269489652619</v>
+        <v>1.034472641770176</v>
       </c>
       <c r="D14">
-        <v>1.021411642993979</v>
+        <v>1.042384586098975</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.023782942442963</v>
+        <v>1.050851496146375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045565449002764</v>
+        <v>1.040219860229034</v>
       </c>
       <c r="J14">
-        <v>1.028859275138386</v>
+        <v>1.041051829980152</v>
       </c>
       <c r="K14">
-        <v>1.035957211356298</v>
+        <v>1.045931875892663</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.038286264756444</v>
+        <v>1.054368062685076</v>
       </c>
       <c r="N14">
-        <v>1.030320373320891</v>
+        <v>1.042530242989038</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9998633706733626</v>
+        <v>1.034556036107811</v>
       </c>
       <c r="D15">
-        <v>1.021727780546028</v>
+        <v>1.042448329337983</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.024159221536527</v>
+        <v>1.050929559374101</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045689526962627</v>
+        <v>1.04023858919397</v>
       </c>
       <c r="J15">
-        <v>1.029090711390418</v>
+        <v>1.041097738035846</v>
       </c>
       <c r="K15">
-        <v>1.036181535834144</v>
+        <v>1.045976024862383</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.038569992488468</v>
+        <v>1.054426662961431</v>
       </c>
       <c r="N15">
-        <v>1.030552138238947</v>
+        <v>1.042576216239437</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002383566220117</v>
+        <v>1.035041678309995</v>
       </c>
       <c r="D16">
-        <v>1.023555105213676</v>
+        <v>1.042819574634863</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.026334535252653</v>
+        <v>1.051384286436094</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046403465057995</v>
+        <v>1.040347297834721</v>
       </c>
       <c r="J16">
-        <v>1.030426449432639</v>
+        <v>1.041364930714565</v>
       </c>
       <c r="K16">
-        <v>1.037476233447376</v>
+        <v>1.046232957668167</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.040208720433136</v>
+        <v>1.054767853309863</v>
       </c>
       <c r="N16">
-        <v>1.031889773182399</v>
+        <v>1.042843788362407</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00394718594301</v>
+        <v>1.035346528442338</v>
       </c>
       <c r="D17">
-        <v>1.024690321312467</v>
+        <v>1.043052649819732</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.027686266153241</v>
+        <v>1.051669844689988</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04684412922977</v>
+        <v>1.040415221250685</v>
       </c>
       <c r="J17">
-        <v>1.031254520139902</v>
+        <v>1.041532521897881</v>
       </c>
       <c r="K17">
-        <v>1.038278859498537</v>
+        <v>1.046394094373347</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.041225665561165</v>
+        <v>1.054981969697604</v>
       </c>
       <c r="N17">
-        <v>1.032719019845047</v>
+        <v>1.043011617544426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004853145401917</v>
+        <v>1.035524420894855</v>
       </c>
       <c r="D18">
-        <v>1.025348580069358</v>
+        <v>1.043188671091892</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.028470194212224</v>
+        <v>1.05183652059744</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047098613918735</v>
+        <v>1.040454743488122</v>
       </c>
       <c r="J18">
-        <v>1.031734052259297</v>
+        <v>1.041630270334042</v>
       </c>
       <c r="K18">
-        <v>1.038743653230088</v>
+        <v>1.046488071259206</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.041814947371957</v>
+        <v>1.055106894446678</v>
       </c>
       <c r="N18">
-        <v>1.033199232955055</v>
+        <v>1.043109504794578</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00516103664976</v>
+        <v>1.035585090885422</v>
       </c>
       <c r="D19">
-        <v>1.025572375961736</v>
+        <v>1.043235063061182</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.028736736535917</v>
+        <v>1.051893372147309</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047184957965052</v>
+        <v>1.040468203185038</v>
       </c>
       <c r="J19">
-        <v>1.031896978195633</v>
+        <v>1.04166359919169</v>
       </c>
       <c r="K19">
-        <v>1.038901570804664</v>
+        <v>1.046520112967501</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.042015225110922</v>
+        <v>1.055149496319188</v>
       </c>
       <c r="N19">
-        <v>1.033362390264908</v>
+        <v>1.043142880983027</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003780055580314</v>
+        <v>1.035313812771872</v>
       </c>
       <c r="D20">
-        <v>1.024568927796808</v>
+        <v>1.043027635549115</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.027541707180099</v>
+        <v>1.051639195121404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046797114425441</v>
+        <v>1.040407943670513</v>
       </c>
       <c r="J20">
-        <v>1.031166036093626</v>
+        <v>1.041514541422695</v>
       </c>
       <c r="K20">
-        <v>1.038193094660884</v>
+        <v>1.046376807101779</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.041116960463584</v>
+        <v>1.054958993476882</v>
       </c>
       <c r="N20">
-        <v>1.032630410141277</v>
+        <v>1.042993611534903</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9992180075815614</v>
+        <v>1.034432788673376</v>
       </c>
       <c r="D21">
-        <v>1.021260320308348</v>
+        <v>1.042354124727885</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.023602838624352</v>
+        <v>1.050814193024462</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045506000058344</v>
+        <v>1.040210903569011</v>
       </c>
       <c r="J21">
-        <v>1.028748459999538</v>
+        <v>1.041029888452209</v>
       </c>
       <c r="K21">
-        <v>1.035849801635001</v>
+        <v>1.045910774729117</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.038150432888072</v>
+        <v>1.054340057212064</v>
       </c>
       <c r="N21">
-        <v>1.030209400811835</v>
+        <v>1.042508270301608</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9962919634032564</v>
+        <v>1.033879574510286</v>
       </c>
       <c r="D22">
-        <v>1.019143320552595</v>
+        <v>1.041931328074651</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.021083598483135</v>
+        <v>1.050296529119856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044670473219778</v>
+        <v>1.040086154006259</v>
       </c>
       <c r="J22">
-        <v>1.02719577300446</v>
+        <v>1.040725135286214</v>
       </c>
       <c r="K22">
-        <v>1.034344850133136</v>
+        <v>1.045617668406812</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.036248644791596</v>
+        <v>1.053951228370767</v>
       </c>
       <c r="N22">
-        <v>1.028654508823128</v>
+        <v>1.042203084351161</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9978487342037149</v>
+        <v>1.034172774855004</v>
       </c>
       <c r="D23">
-        <v>1.020269148887826</v>
+        <v>1.042155396763642</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.022423247145345</v>
+        <v>1.050570852510318</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045115693491281</v>
+        <v>1.040152367619374</v>
       </c>
       <c r="J23">
-        <v>1.028022048887173</v>
+        <v>1.040886693339487</v>
       </c>
       <c r="K23">
-        <v>1.035145717664342</v>
+        <v>1.045773057985862</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.037260370049959</v>
+        <v>1.054157322887108</v>
       </c>
       <c r="N23">
-        <v>1.02948195811237</v>
+        <v>1.042364871835401</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003855593335283</v>
+        <v>1.035328595332736</v>
       </c>
       <c r="D24">
-        <v>1.024623792316734</v>
+        <v>1.043038938197656</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.027607041085541</v>
+        <v>1.051653043988326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046818366255346</v>
+        <v>1.040411232393515</v>
       </c>
       <c r="J24">
-        <v>1.031206028926518</v>
+        <v>1.041522666040068</v>
       </c>
       <c r="K24">
-        <v>1.038231858483082</v>
+        <v>1.046384618511176</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.041166091607695</v>
+        <v>1.054969375336333</v>
       </c>
       <c r="N24">
-        <v>1.032670459768579</v>
+        <v>1.043001747690164</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010589299134922</v>
+        <v>1.036672934234355</v>
       </c>
       <c r="D25">
-        <v>1.029525126482683</v>
+        <v>1.044067074188096</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.033446405368991</v>
+        <v>1.052913354886069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048694657265193</v>
+        <v>1.040707848468223</v>
       </c>
       <c r="J25">
-        <v>1.034765471869734</v>
+        <v>1.042260488979071</v>
       </c>
       <c r="K25">
-        <v>1.041681762186273</v>
+        <v>1.047093847066926</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.045546783995271</v>
+        <v>1.055913055478289</v>
       </c>
       <c r="N25">
-        <v>1.036234957529048</v>
+        <v>1.04374061842237</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037747584065066</v>
+        <v>1.015783555084371</v>
       </c>
       <c r="D2">
-        <v>1.044889327199931</v>
+        <v>1.033320010987301</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.053922114303413</v>
+        <v>1.037971862206339</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040941350211184</v>
+        <v>1.050114797244915</v>
       </c>
       <c r="J2">
-        <v>1.042848772806245</v>
+        <v>1.037502217589338</v>
       </c>
       <c r="K2">
-        <v>1.04765910864655</v>
+        <v>1.044333870644547</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.056666747259589</v>
+        <v>1.048926370501801</v>
       </c>
       <c r="N2">
-        <v>1.044329737680056</v>
+        <v>1.038975589741483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038529238543601</v>
+        <v>1.019459327509218</v>
       </c>
       <c r="D3">
-        <v>1.045487605081989</v>
+        <v>1.036012842502995</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.054656576556018</v>
+        <v>1.041185816762555</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041109093685107</v>
+        <v>1.051103434329723</v>
       </c>
       <c r="J3">
-        <v>1.043275777547245</v>
+        <v>1.039433210996667</v>
       </c>
       <c r="K3">
-        <v>1.048069271492459</v>
+        <v>1.046204769886732</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.057214551684232</v>
+        <v>1.051317502316513</v>
       </c>
       <c r="N3">
-        <v>1.044757348816767</v>
+        <v>1.040909325380938</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03903564103574</v>
+        <v>1.021795561384004</v>
       </c>
       <c r="D4">
-        <v>1.045875297316095</v>
+        <v>1.037727485860414</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.055132741521048</v>
+        <v>1.043233610797364</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041216797564238</v>
+        <v>1.05172402890531</v>
       </c>
       <c r="J4">
-        <v>1.043552004578557</v>
+        <v>1.040657702006061</v>
       </c>
       <c r="K4">
-        <v>1.048334542272475</v>
+        <v>1.047390936749756</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.05756926528707</v>
+        <v>1.052836809901413</v>
       </c>
       <c r="N4">
-        <v>1.045033968122147</v>
+        <v>1.042135555308017</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039248679141596</v>
+        <v>1.022767891990834</v>
       </c>
       <c r="D5">
-        <v>1.046038416831656</v>
+        <v>1.038441830962662</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.055333139099935</v>
+        <v>1.04408708089739</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041261875044098</v>
+        <v>1.051980426912808</v>
       </c>
       <c r="J5">
-        <v>1.043668111464576</v>
+        <v>1.041166633149499</v>
       </c>
       <c r="K5">
-        <v>1.048446029130776</v>
+        <v>1.047883881040817</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.057718444429575</v>
+        <v>1.053469001871</v>
       </c>
       <c r="N5">
-        <v>1.045150239893261</v>
+        <v>1.042645209192054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039284457713145</v>
+        <v>1.022930582803002</v>
       </c>
       <c r="D6">
-        <v>1.046065813100842</v>
+        <v>1.038561396670037</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.055366799446783</v>
+        <v>1.044229952763519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041269431928851</v>
+        <v>1.052023215575698</v>
       </c>
       <c r="J6">
-        <v>1.043687605170943</v>
+        <v>1.041251746089835</v>
       </c>
       <c r="K6">
-        <v>1.048464746291042</v>
+        <v>1.047966316753818</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.057743495588663</v>
+        <v>1.053574771534539</v>
       </c>
       <c r="N6">
-        <v>1.045169761282927</v>
+        <v>1.042730443002526</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03903848708805</v>
+        <v>1.021808591931636</v>
       </c>
       <c r="D7">
-        <v>1.045877476404094</v>
+        <v>1.037737056265981</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.055135418390069</v>
+        <v>1.043245043808625</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041217400683382</v>
+        <v>1.051727472489077</v>
       </c>
       <c r="J7">
-        <v>1.043553556080624</v>
+        <v>1.040664525155859</v>
       </c>
       <c r="K7">
-        <v>1.048336032096637</v>
+        <v>1.047397545805196</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.057571258402114</v>
+        <v>1.052845282714526</v>
       </c>
       <c r="N7">
-        <v>1.045035521827524</v>
+        <v>1.042142388147469</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03801161839754</v>
+        <v>1.017034723020132</v>
       </c>
       <c r="D8">
-        <v>1.045091399581232</v>
+        <v>1.034235922750532</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.054170137742433</v>
+        <v>1.039064752134862</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04099821282586</v>
+        <v>1.050452918267453</v>
       </c>
       <c r="J8">
-        <v>1.042993095488969</v>
+        <v>1.038160065258374</v>
       </c>
       <c r="K8">
-        <v>1.047797751607642</v>
+        <v>1.044971287150607</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.056851828053293</v>
+        <v>1.049740341647665</v>
       </c>
       <c r="N8">
-        <v>1.044474265317544</v>
+        <v>1.039634371629664</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036206974431009</v>
+        <v>1.008285469890377</v>
       </c>
       <c r="D9">
-        <v>1.043710654266841</v>
+        <v>1.027845881345485</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.052476320770582</v>
+        <v>1.031445137373598</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040605596443955</v>
+        <v>1.048056913915751</v>
       </c>
       <c r="J9">
-        <v>1.042004987999624</v>
+        <v>1.033549001603018</v>
       </c>
       <c r="K9">
-        <v>1.046848282372132</v>
+        <v>1.04050277458994</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.055586071116457</v>
+        <v>1.044047838854918</v>
       </c>
       <c r="N9">
-        <v>1.043484754602226</v>
+        <v>1.035016759735022</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035007237981406</v>
+        <v>1.002206030578215</v>
       </c>
       <c r="D10">
-        <v>1.042793244746187</v>
+        <v>1.023426282563647</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.051352031164037</v>
+        <v>1.026181159180868</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040339608817338</v>
+        <v>1.046353318470685</v>
       </c>
       <c r="J10">
-        <v>1.04134599069868</v>
+        <v>1.030332395635797</v>
       </c>
       <c r="K10">
-        <v>1.046214746156294</v>
+        <v>1.037385069418961</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.054743660777173</v>
+        <v>1.040093264877697</v>
       </c>
       <c r="N10">
-        <v>1.042824821449527</v>
+        <v>1.031795585818377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034488559398557</v>
+        <v>0.9995103328219777</v>
       </c>
       <c r="D11">
-        <v>1.042396752730264</v>
+        <v>1.021472038192027</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.050866395711892</v>
+        <v>1.023854825759905</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040223436444542</v>
+        <v>1.045589165580701</v>
       </c>
       <c r="J11">
-        <v>1.04106059311387</v>
+        <v>1.028903496719217</v>
       </c>
       <c r="K11">
-        <v>1.045940303327842</v>
+        <v>1.036000074017641</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.0543792480764</v>
+        <v>1.038340473272021</v>
       </c>
       <c r="N11">
-        <v>1.042539018567411</v>
+        <v>1.030364657701439</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034296023472734</v>
+        <v>0.9984990970019024</v>
       </c>
       <c r="D12">
-        <v>1.042249592942792</v>
+        <v>1.020739815642705</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.050686189971553</v>
+        <v>1.022983365959458</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040180135689371</v>
+        <v>1.045301230579801</v>
       </c>
       <c r="J12">
-        <v>1.040954577990594</v>
+        <v>1.028367113850783</v>
       </c>
       <c r="K12">
-        <v>1.045838346800308</v>
+        <v>1.035480175651436</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.054243944297401</v>
+        <v>1.037683101422086</v>
       </c>
       <c r="N12">
-        <v>1.0424328528905</v>
+        <v>1.029827513107808</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034337317422519</v>
+        <v>0.9987164671994855</v>
       </c>
       <c r="D13">
-        <v>1.042281153981163</v>
+        <v>1.020897170269965</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.050724836493647</v>
+        <v>1.023170634832716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040189430585905</v>
+        <v>1.045363180830069</v>
       </c>
       <c r="J13">
-        <v>1.040977318832773</v>
+        <v>1.028482427801507</v>
       </c>
       <c r="K13">
-        <v>1.045860217533955</v>
+        <v>1.035591945374354</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.05427296488558</v>
+        <v>1.037824399184901</v>
       </c>
       <c r="N13">
-        <v>1.042455626027283</v>
+        <v>1.029942990817568</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034472641770176</v>
+        <v>0.999426948965261</v>
       </c>
       <c r="D14">
-        <v>1.042384586098975</v>
+        <v>1.021411642993978</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.050851496146375</v>
+        <v>1.023782942442962</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040219860229034</v>
+        <v>1.045565449002764</v>
       </c>
       <c r="J14">
-        <v>1.041051829980152</v>
+        <v>1.028859275138385</v>
       </c>
       <c r="K14">
-        <v>1.045931875892663</v>
+        <v>1.035957211356298</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.054368062685076</v>
+        <v>1.038286264756444</v>
       </c>
       <c r="N14">
-        <v>1.042530242989038</v>
+        <v>1.03032037332089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034556036107811</v>
+        <v>0.9998633706733626</v>
       </c>
       <c r="D15">
-        <v>1.042448329337983</v>
+        <v>1.021727780546028</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.050929559374101</v>
+        <v>1.024159221536527</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04023858919397</v>
+        <v>1.045689526962627</v>
       </c>
       <c r="J15">
-        <v>1.041097738035846</v>
+        <v>1.029090711390418</v>
       </c>
       <c r="K15">
-        <v>1.045976024862383</v>
+        <v>1.036181535834144</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.054426662961431</v>
+        <v>1.038569992488468</v>
       </c>
       <c r="N15">
-        <v>1.042576216239437</v>
+        <v>1.030552138238947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035041678309995</v>
+        <v>1.002383566220118</v>
       </c>
       <c r="D16">
-        <v>1.042819574634863</v>
+        <v>1.023555105213676</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.051384286436094</v>
+        <v>1.026334535252654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040347297834721</v>
+        <v>1.046403465057995</v>
       </c>
       <c r="J16">
-        <v>1.041364930714565</v>
+        <v>1.030426449432639</v>
       </c>
       <c r="K16">
-        <v>1.046232957668167</v>
+        <v>1.037476233447376</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.054767853309863</v>
+        <v>1.040208720433137</v>
       </c>
       <c r="N16">
-        <v>1.042843788362407</v>
+        <v>1.031889773182399</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035346528442338</v>
+        <v>1.00394718594301</v>
       </c>
       <c r="D17">
-        <v>1.043052649819732</v>
+        <v>1.024690321312468</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.051669844689988</v>
+        <v>1.027686266153241</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040415221250685</v>
+        <v>1.04684412922977</v>
       </c>
       <c r="J17">
-        <v>1.041532521897881</v>
+        <v>1.031254520139902</v>
       </c>
       <c r="K17">
-        <v>1.046394094373347</v>
+        <v>1.038278859498537</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.054981969697604</v>
+        <v>1.041225665561165</v>
       </c>
       <c r="N17">
-        <v>1.043011617544426</v>
+        <v>1.032719019845048</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035524420894855</v>
+        <v>1.004853145401917</v>
       </c>
       <c r="D18">
-        <v>1.043188671091892</v>
+        <v>1.025348580069358</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.05183652059744</v>
+        <v>1.028470194212224</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040454743488122</v>
+        <v>1.047098613918735</v>
       </c>
       <c r="J18">
-        <v>1.041630270334042</v>
+        <v>1.031734052259297</v>
       </c>
       <c r="K18">
-        <v>1.046488071259206</v>
+        <v>1.038743653230087</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.055106894446678</v>
+        <v>1.041814947371956</v>
       </c>
       <c r="N18">
-        <v>1.043109504794578</v>
+        <v>1.033199232955055</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035585090885422</v>
+        <v>1.005161036649759</v>
       </c>
       <c r="D19">
-        <v>1.043235063061182</v>
+        <v>1.025572375961735</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.051893372147309</v>
+        <v>1.028736736535916</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040468203185038</v>
+        <v>1.047184957965052</v>
       </c>
       <c r="J19">
-        <v>1.04166359919169</v>
+        <v>1.031896978195632</v>
       </c>
       <c r="K19">
-        <v>1.046520112967501</v>
+        <v>1.038901570804663</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.055149496319188</v>
+        <v>1.042015225110922</v>
       </c>
       <c r="N19">
-        <v>1.043142880983027</v>
+        <v>1.033362390264908</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035313812771872</v>
+        <v>1.003780055580314</v>
       </c>
       <c r="D20">
-        <v>1.043027635549115</v>
+        <v>1.024568927796809</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.051639195121404</v>
+        <v>1.0275417071801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040407943670513</v>
+        <v>1.046797114425441</v>
       </c>
       <c r="J20">
-        <v>1.041514541422695</v>
+        <v>1.031166036093627</v>
       </c>
       <c r="K20">
-        <v>1.046376807101779</v>
+        <v>1.038193094660884</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.054958993476882</v>
+        <v>1.041116960463584</v>
       </c>
       <c r="N20">
-        <v>1.042993611534903</v>
+        <v>1.032630410141278</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034432788673376</v>
+        <v>0.9992180075815615</v>
       </c>
       <c r="D21">
-        <v>1.042354124727885</v>
+        <v>1.021260320308349</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.050814193024462</v>
+        <v>1.023602838624352</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040210903569011</v>
+        <v>1.045506000058344</v>
       </c>
       <c r="J21">
-        <v>1.041029888452209</v>
+        <v>1.028748459999538</v>
       </c>
       <c r="K21">
-        <v>1.045910774729117</v>
+        <v>1.035849801635002</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.054340057212064</v>
+        <v>1.038150432888072</v>
       </c>
       <c r="N21">
-        <v>1.042508270301608</v>
+        <v>1.030209400811835</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033879574510286</v>
+        <v>0.9962919634032565</v>
       </c>
       <c r="D22">
-        <v>1.041931328074651</v>
+        <v>1.019143320552595</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.050296529119856</v>
+        <v>1.021083598483135</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040086154006259</v>
+        <v>1.044670473219778</v>
       </c>
       <c r="J22">
-        <v>1.040725135286214</v>
+        <v>1.02719577300446</v>
       </c>
       <c r="K22">
-        <v>1.045617668406812</v>
+        <v>1.034344850133136</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.053951228370767</v>
+        <v>1.036248644791596</v>
       </c>
       <c r="N22">
-        <v>1.042203084351161</v>
+        <v>1.028654508823128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034172774855004</v>
+        <v>0.9978487342037153</v>
       </c>
       <c r="D23">
-        <v>1.042155396763642</v>
+        <v>1.020269148887826</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.050570852510318</v>
+        <v>1.022423247145345</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040152367619374</v>
+        <v>1.045115693491281</v>
       </c>
       <c r="J23">
-        <v>1.040886693339487</v>
+        <v>1.028022048887174</v>
       </c>
       <c r="K23">
-        <v>1.045773057985862</v>
+        <v>1.035145717664342</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.054157322887108</v>
+        <v>1.037260370049959</v>
       </c>
       <c r="N23">
-        <v>1.042364871835401</v>
+        <v>1.029481958112371</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035328595332736</v>
+        <v>1.003855593335282</v>
       </c>
       <c r="D24">
-        <v>1.043038938197656</v>
+        <v>1.024623792316733</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.051653043988326</v>
+        <v>1.02760704108554</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040411232393515</v>
+        <v>1.046818366255345</v>
       </c>
       <c r="J24">
-        <v>1.041522666040068</v>
+        <v>1.031206028926518</v>
       </c>
       <c r="K24">
-        <v>1.046384618511176</v>
+        <v>1.038231858483081</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.054969375336333</v>
+        <v>1.041166091607694</v>
       </c>
       <c r="N24">
-        <v>1.043001747690164</v>
+        <v>1.032670459768578</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036672934234355</v>
+        <v>1.010589299134923</v>
       </c>
       <c r="D25">
-        <v>1.044067074188096</v>
+        <v>1.029525126482684</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.052913354886069</v>
+        <v>1.033446405368992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040707848468223</v>
+        <v>1.048694657265193</v>
       </c>
       <c r="J25">
-        <v>1.042260488979071</v>
+        <v>1.034765471869734</v>
       </c>
       <c r="K25">
-        <v>1.047093847066926</v>
+        <v>1.041681762186274</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.055913055478289</v>
+        <v>1.045546783995272</v>
       </c>
       <c r="N25">
-        <v>1.04374061842237</v>
+        <v>1.036234957529048</v>
       </c>
     </row>
   </sheetData>
